--- a/filterbank harmonic summation model/FH/f0_FH.xlsx
+++ b/filterbank harmonic summation model/FH/f0_FH.xlsx
@@ -604,7 +604,7 @@
         <v>410</v>
       </c>
       <c r="S2" t="n">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="T2" t="n">
         <v>435</v>
@@ -728,16 +728,16 @@
         <v>387</v>
       </c>
       <c r="U3" t="n">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="V3" t="n">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="W3" t="n">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="X3" t="n">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Y3" t="n">
         <v>323</v>
@@ -1079,13 +1079,13 @@
         <v>405</v>
       </c>
       <c r="T6" t="n">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="U6" t="n">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="V6" t="n">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="W6" t="n">
         <v>410</v>
@@ -1197,7 +1197,7 @@
         <v>431</v>
       </c>
       <c r="T7" t="n">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="U7" t="n">
         <v>441</v>
@@ -1545,7 +1545,7 @@
         <v>396</v>
       </c>
       <c r="R10" t="n">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="S10" t="n">
         <v>424</v>
@@ -1560,7 +1560,7 @@
         <v>420</v>
       </c>
       <c r="W10" t="n">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="X10" t="n">
         <v>376</v>
@@ -1890,7 +1890,7 @@
         <v>342</v>
       </c>
       <c r="O13" t="n">
-        <v>340</v>
+        <v>417</v>
       </c>
       <c r="P13" t="n">
         <v>409</v>
@@ -2380,7 +2380,7 @@
         <v>423</v>
       </c>
       <c r="U17" t="n">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="V17" t="n">
         <v>424</v>
